--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H2">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I2">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J2">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N2">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O2">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P2">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q2">
-        <v>12.68372620347074</v>
+        <v>23.2704824041035</v>
       </c>
       <c r="R2">
-        <v>12.68372620347074</v>
+        <v>93.081929616414</v>
       </c>
       <c r="S2">
-        <v>2.863912820259359E-05</v>
+        <v>3.351970063886911E-05</v>
       </c>
       <c r="T2">
-        <v>2.863912820259359E-05</v>
+        <v>1.546958255011584E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H3">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I3">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J3">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N3">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P3">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q3">
-        <v>70.92225634222895</v>
+        <v>125.236296627462</v>
       </c>
       <c r="R3">
-        <v>70.92225634222895</v>
+        <v>751.4177797647719</v>
       </c>
       <c r="S3">
-        <v>0.0001601383977562131</v>
+        <v>0.0001803951933258112</v>
       </c>
       <c r="T3">
-        <v>0.0001601383977562131</v>
+        <v>0.0001248805157090998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H4">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I4">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J4">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N4">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O4">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P4">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q4">
-        <v>206.0930669179449</v>
+        <v>346.442722411809</v>
       </c>
       <c r="R4">
-        <v>206.0930669179449</v>
+        <v>2078.656334470854</v>
       </c>
       <c r="S4">
-        <v>0.0004653463556721704</v>
+        <v>0.0004990294632530222</v>
       </c>
       <c r="T4">
-        <v>0.0004653463556721704</v>
+        <v>0.0003454585212396341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H5">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I5">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J5">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N5">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O5">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P5">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q5">
-        <v>199.405222058701</v>
+        <v>336.6969579882014</v>
       </c>
       <c r="R5">
-        <v>199.405222058701</v>
+        <v>2020.181747929209</v>
       </c>
       <c r="S5">
-        <v>0.0004502455845540953</v>
+        <v>0.0004849912881819862</v>
       </c>
       <c r="T5">
-        <v>0.0004502455845540953</v>
+        <v>0.0003357404433343136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H6">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I6">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J6">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N6">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O6">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P6">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q6">
-        <v>18.36802767841052</v>
+        <v>33.184249148532</v>
       </c>
       <c r="R6">
-        <v>18.36802767841052</v>
+        <v>199.105494891192</v>
       </c>
       <c r="S6">
-        <v>4.147395576599885E-05</v>
+        <v>4.77998727344085E-05</v>
       </c>
       <c r="T6">
-        <v>4.147395576599885E-05</v>
+        <v>3.308997677738112E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H7">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I7">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J7">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N7">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O7">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P7">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q7">
-        <v>31.77085984275976</v>
+        <v>52.64135696871224</v>
       </c>
       <c r="R7">
-        <v>31.77085984275976</v>
+        <v>210.565427874849</v>
       </c>
       <c r="S7">
-        <v>7.173678409223696E-05</v>
+        <v>7.582664150116313E-05</v>
       </c>
       <c r="T7">
-        <v>7.173678409223696E-05</v>
+        <v>3.499453956459493E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H8">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J8">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N8">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O8">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P8">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q8">
-        <v>97.71099342813247</v>
+        <v>122.058681934986</v>
       </c>
       <c r="R8">
-        <v>97.71099342813247</v>
+        <v>732.3520916099161</v>
       </c>
       <c r="S8">
-        <v>0.0002206258336627709</v>
+        <v>0.0001758180345291941</v>
       </c>
       <c r="T8">
-        <v>0.0002206258336627709</v>
+        <v>0.0001217119282292126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H9">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J9">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N9">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O9">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P9">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q9">
-        <v>546.3602739601539</v>
+        <v>656.8912939282853</v>
       </c>
       <c r="R9">
-        <v>546.3602739601539</v>
+        <v>5912.021645354568</v>
       </c>
       <c r="S9">
-        <v>0.001233650244394847</v>
+        <v>0.000946211562888474</v>
       </c>
       <c r="T9">
-        <v>0.001233650244394847</v>
+        <v>0.0009825377198106216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H10">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J10">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N10">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O10">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P10">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q10">
-        <v>1587.668953441504</v>
+        <v>1817.166542971919</v>
       </c>
       <c r="R10">
-        <v>1587.668953441504</v>
+        <v>16354.49888674728</v>
       </c>
       <c r="S10">
-        <v>0.00358486567523404</v>
+        <v>0.00261751679546817</v>
       </c>
       <c r="T10">
-        <v>0.00358486567523404</v>
+        <v>0.002718006294421525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H11">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J11">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N11">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O11">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P11">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q11">
-        <v>1536.148134195884</v>
+        <v>1766.047913828905</v>
       </c>
       <c r="R11">
-        <v>1536.148134195884</v>
+        <v>15894.43122446014</v>
       </c>
       <c r="S11">
-        <v>0.003468534612594561</v>
+        <v>0.002543883549874556</v>
       </c>
       <c r="T11">
-        <v>0.003468534612594561</v>
+        <v>0.00264154618331598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H12">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J12">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N12">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O12">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P12">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q12">
-        <v>141.5008652017269</v>
+        <v>174.0585193608942</v>
       </c>
       <c r="R12">
-        <v>141.5008652017269</v>
+        <v>1566.526674248048</v>
       </c>
       <c r="S12">
-        <v>0.0003195008591545649</v>
+        <v>0.000250720606530836</v>
       </c>
       <c r="T12">
-        <v>0.0003195008591545649</v>
+        <v>0.0002603460607671512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H13">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J13">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N13">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O13">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P13">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q13">
-        <v>244.7515996089971</v>
+        <v>276.1152319617177</v>
       </c>
       <c r="R13">
-        <v>244.7515996089971</v>
+        <v>1656.691391770306</v>
       </c>
       <c r="S13">
-        <v>0.0005526351110507154</v>
+        <v>0.0003977270327475725</v>
       </c>
       <c r="T13">
-        <v>0.0005526351110507154</v>
+        <v>0.0002753308225417125</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H14">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I14">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J14">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N14">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O14">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P14">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q14">
-        <v>7313.642788518178</v>
+        <v>12883.72438363423</v>
       </c>
       <c r="R14">
-        <v>7313.642788518178</v>
+        <v>77302.34630180536</v>
       </c>
       <c r="S14">
-        <v>0.01651378704398642</v>
+        <v>0.01855821366113854</v>
       </c>
       <c r="T14">
-        <v>0.01651378704398642</v>
+        <v>0.01284712330697695</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H15">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I15">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J15">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N15">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O15">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P15">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q15">
-        <v>40894.92632700039</v>
+        <v>69337.19295353997</v>
       </c>
       <c r="R15">
-        <v>40894.92632700039</v>
+        <v>624034.7365818596</v>
       </c>
       <c r="S15">
-        <v>0.09233840427697823</v>
+        <v>0.09987596778536585</v>
       </c>
       <c r="T15">
-        <v>0.09233840427697823</v>
+        <v>0.103710321772171</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H16">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I16">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J16">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N16">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O16">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P16">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q16">
-        <v>118836.6138190188</v>
+        <v>191808.337822965</v>
       </c>
       <c r="R16">
-        <v>118836.6138190188</v>
+        <v>1726275.040406685</v>
       </c>
       <c r="S16">
-        <v>0.2683262760271262</v>
+        <v>0.2762881298383016</v>
       </c>
       <c r="T16">
-        <v>0.2683262760271262</v>
+        <v>0.2868951508829344</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H17">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I17">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J17">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N17">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O17">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P17">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q17">
-        <v>114980.2937171111</v>
+        <v>186412.5862196615</v>
       </c>
       <c r="R17">
-        <v>114980.2937171111</v>
+        <v>1677713.275976953</v>
       </c>
       <c r="S17">
-        <v>0.2596189258354647</v>
+        <v>0.2685158810587689</v>
       </c>
       <c r="T17">
-        <v>0.2596189258354647</v>
+        <v>0.2788245164781601</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H18">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I18">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J18">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N18">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O18">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P18">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q18">
-        <v>10591.3034556635</v>
+        <v>18372.4906292507</v>
       </c>
       <c r="R18">
-        <v>10591.3034556635</v>
+        <v>165352.4156632563</v>
       </c>
       <c r="S18">
-        <v>0.02391455733381553</v>
+        <v>0.02646444431999891</v>
       </c>
       <c r="T18">
-        <v>0.02391455733381553</v>
+        <v>0.02748044496396805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H19">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I19">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J19">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N19">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O19">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P19">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q19">
-        <v>18319.59443514628</v>
+        <v>29144.93660199306</v>
       </c>
       <c r="R19">
-        <v>18319.59443514628</v>
+        <v>174869.6196119583</v>
       </c>
       <c r="S19">
-        <v>0.04136459627330244</v>
+        <v>0.04198149110417046</v>
       </c>
       <c r="T19">
-        <v>0.04136459627330244</v>
+        <v>0.02906213942107105</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H20">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I20">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J20">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N20">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O20">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P20">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q20">
-        <v>2667.2213192981</v>
+        <v>4056.650671211433</v>
       </c>
       <c r="R20">
-        <v>2667.2213192981</v>
+        <v>24339.9040272686</v>
       </c>
       <c r="S20">
-        <v>0.006022433162201718</v>
+        <v>0.005843356133927695</v>
       </c>
       <c r="T20">
-        <v>0.006022433162201718</v>
+        <v>0.004045126225502441</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H21">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I21">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J21">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N21">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O21">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P21">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q21">
-        <v>14914.02061934727</v>
+        <v>21831.94563616956</v>
       </c>
       <c r="R21">
-        <v>14914.02061934727</v>
+        <v>196487.510725526</v>
       </c>
       <c r="S21">
-        <v>0.03367500541100717</v>
+        <v>0.03144757677904534</v>
       </c>
       <c r="T21">
-        <v>0.03367500541100717</v>
+        <v>0.03265488564495014</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H22">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I22">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J22">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N22">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O22">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P22">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q22">
-        <v>43338.66980609021</v>
+        <v>60393.98229923907</v>
       </c>
       <c r="R22">
-        <v>43338.66980609021</v>
+        <v>543545.8406931516</v>
       </c>
       <c r="S22">
-        <v>0.09785623725990358</v>
+        <v>0.08699382212646672</v>
       </c>
       <c r="T22">
-        <v>0.09785623725990358</v>
+        <v>0.09033361563329784</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H23">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I23">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J23">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N23">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O23">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P23">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q23">
-        <v>41932.30371913916</v>
+        <v>58695.04193762782</v>
       </c>
       <c r="R23">
-        <v>41932.30371913916</v>
+        <v>528255.3774386504</v>
       </c>
       <c r="S23">
-        <v>0.0946807430858848</v>
+        <v>0.08454660288384117</v>
       </c>
       <c r="T23">
-        <v>0.0946807430858848</v>
+        <v>0.08779244481185293</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H24">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I24">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J24">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N24">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O24">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P24">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q24">
-        <v>3862.555390379538</v>
+        <v>5784.878209413549</v>
       </c>
       <c r="R24">
-        <v>3862.555390379538</v>
+        <v>52063.90388472193</v>
       </c>
       <c r="S24">
-        <v>0.00872142911634506</v>
+        <v>0.008332761755625051</v>
       </c>
       <c r="T24">
-        <v>0.00872142911634506</v>
+        <v>0.008652666122684012</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H25">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I25">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J25">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N25">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O25">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P25">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q25">
-        <v>6680.995264771065</v>
+        <v>9176.758451855316</v>
       </c>
       <c r="R25">
-        <v>6680.995264771065</v>
+        <v>55060.55071113189</v>
       </c>
       <c r="S25">
-        <v>0.01508530512558226</v>
+        <v>0.01321855691685875</v>
       </c>
       <c r="T25">
-        <v>0.01508530512558226</v>
+        <v>0.009150688409563172</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H26">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I26">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J26">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N26">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O26">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P26">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q26">
-        <v>27.93181996986871</v>
+        <v>35.694191915514</v>
       </c>
       <c r="R26">
-        <v>27.93181996986871</v>
+        <v>214.165151493084</v>
       </c>
       <c r="S26">
-        <v>6.306845166919002E-05</v>
+        <v>5.141529113050911E-05</v>
       </c>
       <c r="T26">
-        <v>6.306845166919002E-05</v>
+        <v>3.559278910561076E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H27">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I27">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J27">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N27">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O27">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P27">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q27">
-        <v>156.1834167837796</v>
+        <v>192.097797071048</v>
       </c>
       <c r="R27">
-        <v>156.1834167837796</v>
+        <v>1728.880173639432</v>
       </c>
       <c r="S27">
-        <v>0.0003526532207204065</v>
+        <v>0.0002767050781066875</v>
       </c>
       <c r="T27">
-        <v>0.0003526532207204065</v>
+        <v>0.0002873281062778656</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H28">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I28">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J28">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N28">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O28">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P28">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q28">
-        <v>453.8535718797629</v>
+        <v>531.4025213039693</v>
       </c>
       <c r="R28">
-        <v>453.8535718797629</v>
+        <v>4782.622691735723</v>
       </c>
       <c r="S28">
-        <v>0.001024775402886955</v>
+        <v>0.0007654526933961746</v>
       </c>
       <c r="T28">
-        <v>0.001024775402886955</v>
+        <v>0.0007948393081315809</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H29">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I29">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J29">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N29">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O29">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P29">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q29">
-        <v>439.1257485573313</v>
+        <v>516.4536612133726</v>
       </c>
       <c r="R29">
-        <v>439.1257485573313</v>
+        <v>4648.082950920353</v>
       </c>
       <c r="S29">
-        <v>0.00099152082032108</v>
+        <v>0.0007439197785890118</v>
       </c>
       <c r="T29">
-        <v>0.00099152082032108</v>
+        <v>0.0007724797198055611</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H30">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I30">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J30">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N30">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O30">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P30">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q30">
-        <v>40.44966235352334</v>
+        <v>50.90074787066132</v>
       </c>
       <c r="R30">
-        <v>40.44966235352334</v>
+        <v>458.106730835952</v>
       </c>
       <c r="S30">
-        <v>9.133302369592184E-05</v>
+        <v>7.331940100297428E-05</v>
       </c>
       <c r="T30">
-        <v>9.133302369592184E-05</v>
+        <v>7.613421765786848E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H31">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I31">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J31">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N31">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O31">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P31">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q31">
-        <v>69.96508148946529</v>
+        <v>80.74567023169899</v>
       </c>
       <c r="R31">
-        <v>69.96508148946529</v>
+        <v>484.474021390194</v>
       </c>
       <c r="S31">
-        <v>0.0001579771516932781</v>
+        <v>0.0001163091786001875</v>
       </c>
       <c r="T31">
-        <v>0.0001579771516932781</v>
+        <v>8.051628171189739E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H32">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I32">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J32">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N32">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O32">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P32">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q32">
-        <v>297.9680255933943</v>
+        <v>486.916290136305</v>
       </c>
       <c r="R32">
-        <v>297.9680255933943</v>
+        <v>1947.66516054522</v>
       </c>
       <c r="S32">
-        <v>0.0006727947567102015</v>
+        <v>0.0007013730097266739</v>
       </c>
       <c r="T32">
-        <v>0.0006727947567102015</v>
+        <v>0.0003236886805548763</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H33">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I33">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J33">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N33">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O33">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P33">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q33">
-        <v>1666.116435652788</v>
+        <v>2620.46965272626</v>
       </c>
       <c r="R33">
-        <v>1666.116435652788</v>
+        <v>15722.81791635756</v>
       </c>
       <c r="S33">
-        <v>0.00376199560252661</v>
+        <v>0.003774625586495635</v>
       </c>
       <c r="T33">
-        <v>0.00376199560252661</v>
+        <v>0.002613025220683043</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H34">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I34">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J34">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N34">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O34">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P34">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q34">
-        <v>4841.569681725193</v>
+        <v>7249.037738544403</v>
       </c>
       <c r="R34">
-        <v>4841.569681725193</v>
+        <v>43494.22643126642</v>
       </c>
       <c r="S34">
-        <v>0.01093198738228644</v>
+        <v>0.01044179362921265</v>
       </c>
       <c r="T34">
-        <v>0.01093198738228644</v>
+        <v>0.007228444113746205</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H35">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I35">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J35">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N35">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O35">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P35">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q35">
-        <v>4684.457812845641</v>
+        <v>7045.115388535511</v>
       </c>
       <c r="R35">
-        <v>4684.457812845641</v>
+        <v>42270.69233121306</v>
       </c>
       <c r="S35">
-        <v>0.01057723776984531</v>
+        <v>0.01014805600885858</v>
       </c>
       <c r="T35">
-        <v>0.01057723776984531</v>
+        <v>0.007025101082057277</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H36">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I36">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J36">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N36">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O36">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P36">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q36">
-        <v>431.5045006161643</v>
+        <v>694.3539547556933</v>
       </c>
       <c r="R36">
-        <v>431.5045006161643</v>
+        <v>4166.123728534159</v>
       </c>
       <c r="S36">
-        <v>0.0009743124784387778</v>
+        <v>0.001000174224867873</v>
       </c>
       <c r="T36">
-        <v>0.0009743124784387778</v>
+        <v>0.0006923813805552099</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H37">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I37">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J37">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N37">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O37">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P37">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q37">
-        <v>746.3658728427249</v>
+        <v>1101.478422227568</v>
       </c>
       <c r="R37">
-        <v>746.3658728427249</v>
+        <v>4405.91368891027</v>
       </c>
       <c r="S37">
-        <v>0.00168525144547305</v>
+        <v>0.001586612014830052</v>
       </c>
       <c r="T37">
-        <v>0.00168525144547305</v>
+        <v>0.000732232838319501</v>
       </c>
     </row>
   </sheetData>
